--- a/covid_dmv/raw_data/dc_data.xlsx
+++ b/covid_dmv/raw_data/dc_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcgovict-my.sharepoint.com/personal/ramona_yun1_dc_gov/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D40D7AA-B31E-4A98-BCF8-D681F0362F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="6195" tabRatio="807"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overal Stats" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="192">
   <si>
     <t>Testing</t>
   </si>
@@ -598,7 +604,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">As of October 2, 2020, the Office of the Chief Medical Examiner (OCME) has submitted </t>
+      <t xml:space="preserve">As of October 7, 2020, the Office of the Chief Medical Examiner (OCME) has submitted </t>
     </r>
     <r>
       <rPr>
@@ -626,7 +632,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -961,7 +967,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60DA38EB-A376-4FCE-9F96-95B919EB7113}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DA38EB-A376-4FCE-9F96-95B919EB7113}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,48 +1302,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HE121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:HJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="HB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HG3" sqref="HG3"/>
+      <pane xSplit="2" topLeftCell="HH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HJ1" sqref="HJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="40" max="57" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="70" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="76" max="78" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="98" max="102" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="104" max="118" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="128" max="149" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="167" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="173" max="176" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="178" max="180" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="192" max="193" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="194" max="197" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="200" max="202" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="205" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="209" max="212" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="40" max="57" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="102" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="118" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="149" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="159" max="167" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="173" max="176" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="180" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="197" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="200" max="202" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="204" max="205" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="209" max="212" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="214" max="216" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:213" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:218" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9">
         <v>43897</v>
       </c>
@@ -1971,8 +1979,23 @@
       <c r="HE1" s="9">
         <v>44107</v>
       </c>
+      <c r="HF1" s="9">
+        <v>44108</v>
+      </c>
+      <c r="HG1" s="9">
+        <v>44109</v>
+      </c>
+      <c r="HH1" s="9">
+        <v>44110</v>
+      </c>
+      <c r="HI1" s="9">
+        <v>44111</v>
+      </c>
+      <c r="HJ1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:218" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2019,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2615,8 +2638,20 @@
       <c r="HE3">
         <v>399825</v>
       </c>
+      <c r="HF3">
+        <v>401568</v>
+      </c>
+      <c r="HG3">
+        <v>410029</v>
+      </c>
+      <c r="HH3">
+        <v>412656</v>
+      </c>
+      <c r="HI3">
+        <v>416816</v>
+      </c>
     </row>
-    <row r="4" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3030,8 +3065,20 @@
       <c r="HE4">
         <v>219389</v>
       </c>
+      <c r="HF4">
+        <v>219912</v>
+      </c>
+      <c r="HG4">
+        <v>222724</v>
+      </c>
+      <c r="HH4">
+        <v>223620</v>
+      </c>
+      <c r="HI4">
+        <v>224978</v>
+      </c>
     </row>
-    <row r="5" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3671,8 +3718,20 @@
       <c r="HE5">
         <v>15519</v>
       </c>
+      <c r="HF5">
+        <v>15547</v>
+      </c>
+      <c r="HG5">
+        <v>15652</v>
+      </c>
+      <c r="HH5">
+        <v>15697</v>
+      </c>
+      <c r="HI5">
+        <v>15765</v>
+      </c>
     </row>
-    <row r="6" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4294,8 +4353,20 @@
       <c r="HE6">
         <v>631</v>
       </c>
+      <c r="HF6">
+        <v>631</v>
+      </c>
+      <c r="HG6">
+        <v>631</v>
+      </c>
+      <c r="HH6">
+        <v>632</v>
+      </c>
+      <c r="HI6">
+        <v>634</v>
+      </c>
     </row>
-    <row r="7" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -4887,11 +4958,23 @@
       <c r="HE7">
         <v>12299</v>
       </c>
+      <c r="HF7">
+        <v>12306</v>
+      </c>
+      <c r="HG7">
+        <v>12350</v>
+      </c>
+      <c r="HH7">
+        <v>12350</v>
+      </c>
+      <c r="HI7">
+        <v>12431</v>
+      </c>
     </row>
-    <row r="8" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -5375,8 +5458,20 @@
       <c r="HE9">
         <v>345</v>
       </c>
+      <c r="HF9">
+        <v>345</v>
+      </c>
+      <c r="HG9">
+        <v>345</v>
+      </c>
+      <c r="HH9">
+        <v>345</v>
+      </c>
+      <c r="HI9">
+        <v>345</v>
+      </c>
     </row>
-    <row r="10" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -5962,8 +6057,20 @@
       <c r="HE10">
         <v>54</v>
       </c>
+      <c r="HF10">
+        <v>59</v>
+      </c>
+      <c r="HG10">
+        <v>61</v>
+      </c>
+      <c r="HH10">
+        <v>61</v>
+      </c>
+      <c r="HI10">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -6549,8 +6656,20 @@
       <c r="HE11">
         <v>440</v>
       </c>
+      <c r="HF11">
+        <v>440</v>
+      </c>
+      <c r="HG11">
+        <v>440</v>
+      </c>
+      <c r="HH11">
+        <v>440</v>
+      </c>
+      <c r="HI11">
+        <v>440</v>
+      </c>
     </row>
-    <row r="12" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -7136,8 +7255,20 @@
       <c r="HE12">
         <v>187</v>
       </c>
+      <c r="HF12">
+        <v>191</v>
+      </c>
+      <c r="HG12">
+        <v>170</v>
+      </c>
+      <c r="HH12">
+        <v>173</v>
+      </c>
+      <c r="HI12">
+        <v>180</v>
+      </c>
     </row>
-    <row r="13" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -7723,8 +7854,20 @@
       <c r="HE13">
         <v>253</v>
       </c>
+      <c r="HF13">
+        <v>249</v>
+      </c>
+      <c r="HG13">
+        <v>270</v>
+      </c>
+      <c r="HH13">
+        <v>268</v>
+      </c>
+      <c r="HI13">
+        <v>260</v>
+      </c>
     </row>
-    <row r="14" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -8172,8 +8315,20 @@
       <c r="HE14">
         <v>95</v>
       </c>
+      <c r="HF14">
+        <v>95</v>
+      </c>
+      <c r="HG14">
+        <v>105</v>
+      </c>
+      <c r="HH14">
+        <v>103</v>
+      </c>
+      <c r="HI14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -8591,8 +8746,20 @@
       <c r="HE15">
         <v>29</v>
       </c>
+      <c r="HF15">
+        <v>28</v>
+      </c>
+      <c r="HG15">
+        <v>30</v>
+      </c>
+      <c r="HH15">
+        <v>30</v>
+      </c>
+      <c r="HI15">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:218" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -9040,8 +9207,20 @@
       <c r="HE16">
         <v>2045</v>
       </c>
+      <c r="HF16">
+        <v>1949</v>
+      </c>
+      <c r="HG16">
+        <v>1980</v>
+      </c>
+      <c r="HH16">
+        <v>2038</v>
+      </c>
+      <c r="HI16">
+        <v>2124</v>
+      </c>
     </row>
-    <row r="17" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -9489,13 +9668,25 @@
       <c r="HE17" s="23">
         <v>0.82</v>
       </c>
+      <c r="HF17" s="23">
+        <v>0.78</v>
+      </c>
+      <c r="HG17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="HH17" s="23">
+        <v>0.82</v>
+      </c>
+      <c r="HI17" s="23">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="19" spans="1:213" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -9503,7 +9694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -10080,8 +10271,17 @@
       <c r="HD21">
         <v>154</v>
       </c>
+      <c r="HG21">
+        <v>156</v>
+      </c>
+      <c r="HH21">
+        <v>156</v>
+      </c>
+      <c r="HI21">
+        <v>156</v>
+      </c>
     </row>
-    <row r="22" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -10604,8 +10804,17 @@
       <c r="HD22">
         <v>15</v>
       </c>
+      <c r="HG22">
+        <v>17</v>
+      </c>
+      <c r="HH22">
+        <v>16</v>
+      </c>
+      <c r="HI22">
+        <v>16</v>
+      </c>
     </row>
-    <row r="23" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -11128,8 +11337,17 @@
       <c r="HD23">
         <v>139</v>
       </c>
+      <c r="HG23">
+        <v>139</v>
+      </c>
+      <c r="HH23">
+        <v>138</v>
+      </c>
+      <c r="HI23">
+        <v>140</v>
+      </c>
     </row>
-    <row r="24" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -11697,8 +11915,17 @@
       <c r="HD24">
         <v>88</v>
       </c>
+      <c r="HG24">
+        <v>68</v>
+      </c>
+      <c r="HH24">
+        <v>69</v>
+      </c>
+      <c r="HI24">
+        <v>67</v>
+      </c>
     </row>
-    <row r="25" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -12266,8 +12493,17 @@
       <c r="HD25">
         <v>103</v>
       </c>
+      <c r="HG25">
+        <v>85</v>
+      </c>
+      <c r="HH25">
+        <v>85</v>
+      </c>
+      <c r="HI25">
+        <v>83</v>
+      </c>
     </row>
-    <row r="26" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -12835,13 +13071,22 @@
       <c r="HD26">
         <v>2258</v>
       </c>
+      <c r="HG26">
+        <v>2270</v>
+      </c>
+      <c r="HH26">
+        <v>2280</v>
+      </c>
+      <c r="HI26">
+        <v>2292</v>
+      </c>
     </row>
-    <row r="28" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -13418,8 +13663,17 @@
       <c r="HD29">
         <v>251</v>
       </c>
+      <c r="HG29">
+        <v>253</v>
+      </c>
+      <c r="HH29">
+        <v>253</v>
+      </c>
+      <c r="HI29">
+        <v>254</v>
+      </c>
     </row>
-    <row r="30" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -13942,8 +14196,17 @@
       <c r="HD30">
         <v>16</v>
       </c>
+      <c r="HG30">
+        <v>18</v>
+      </c>
+      <c r="HH30">
+        <v>18</v>
+      </c>
+      <c r="HI30">
+        <v>17</v>
+      </c>
     </row>
-    <row r="31" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -14466,8 +14729,17 @@
       <c r="HD31">
         <v>234</v>
       </c>
+      <c r="HG31">
+        <v>234</v>
+      </c>
+      <c r="HH31">
+        <v>234</v>
+      </c>
+      <c r="HI31">
+        <v>236</v>
+      </c>
     </row>
-    <row r="32" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -15035,8 +15307,17 @@
       <c r="HD32">
         <v>49</v>
       </c>
+      <c r="HG32">
+        <v>46</v>
+      </c>
+      <c r="HH32">
+        <v>48</v>
+      </c>
+      <c r="HI32">
+        <v>46</v>
+      </c>
     </row>
-    <row r="33" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -15604,8 +15885,17 @@
       <c r="HD33">
         <v>65</v>
       </c>
+      <c r="HG33">
+        <v>64</v>
+      </c>
+      <c r="HH33">
+        <v>66</v>
+      </c>
+      <c r="HI33">
+        <v>63</v>
+      </c>
     </row>
-    <row r="34" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -16173,8 +16463,17 @@
       <c r="HD34">
         <v>1981</v>
       </c>
+      <c r="HG34">
+        <v>1990</v>
+      </c>
+      <c r="HH34">
+        <v>1994</v>
+      </c>
+      <c r="HI34">
+        <v>1999</v>
+      </c>
     </row>
-    <row r="35" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -16523,13 +16822,22 @@
       <c r="HD35">
         <v>1</v>
       </c>
+      <c r="HG35">
+        <v>1</v>
+      </c>
+      <c r="HH35">
+        <v>1</v>
+      </c>
+      <c r="HI35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -17094,8 +17402,17 @@
       <c r="HD38">
         <v>101</v>
       </c>
+      <c r="HG38">
+        <v>101</v>
+      </c>
+      <c r="HH38">
+        <v>101</v>
+      </c>
+      <c r="HI38">
+        <v>101</v>
+      </c>
     </row>
-    <row r="39" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -17612,8 +17929,17 @@
       <c r="HD39">
         <v>3</v>
       </c>
+      <c r="HG39">
+        <v>3</v>
+      </c>
+      <c r="HH39">
+        <v>3</v>
+      </c>
+      <c r="HI39">
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -18130,8 +18456,17 @@
       <c r="HD40">
         <v>97</v>
       </c>
+      <c r="HG40">
+        <v>97</v>
+      </c>
+      <c r="HH40">
+        <v>97</v>
+      </c>
+      <c r="HI40">
+        <v>97</v>
+      </c>
     </row>
-    <row r="41" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -18693,8 +19028,17 @@
       <c r="HD41">
         <v>0</v>
       </c>
+      <c r="HG41">
+        <v>0</v>
+      </c>
+      <c r="HH41">
+        <v>0</v>
+      </c>
+      <c r="HI41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -19253,8 +19597,17 @@
       <c r="HD42">
         <v>3</v>
       </c>
+      <c r="HG42">
+        <v>3</v>
+      </c>
+      <c r="HH42">
+        <v>3</v>
+      </c>
+      <c r="HI42">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -19819,8 +20172,17 @@
       <c r="HD43">
         <v>319</v>
       </c>
+      <c r="HG43">
+        <v>319</v>
+      </c>
+      <c r="HH43">
+        <v>319</v>
+      </c>
+      <c r="HI43">
+        <v>319</v>
+      </c>
     </row>
-    <row r="44" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -20319,16 +20681,25 @@
       <c r="HD44">
         <v>1</v>
       </c>
+      <c r="HG44">
+        <v>1</v>
+      </c>
+      <c r="HH44">
+        <v>1</v>
+      </c>
+      <c r="HI44">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -20899,8 +21270,17 @@
       <c r="HD47">
         <v>217</v>
       </c>
+      <c r="HG47">
+        <v>217</v>
+      </c>
+      <c r="HH47">
+        <v>217</v>
+      </c>
+      <c r="HI47">
+        <v>217</v>
+      </c>
     </row>
-    <row r="48" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -21423,8 +21803,17 @@
       <c r="HD48">
         <v>0</v>
       </c>
+      <c r="HG48">
+        <v>0</v>
+      </c>
+      <c r="HH48">
+        <v>0</v>
+      </c>
+      <c r="HI48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -21947,8 +22336,17 @@
       <c r="HD49">
         <v>208</v>
       </c>
+      <c r="HG49">
+        <v>208</v>
+      </c>
+      <c r="HH49">
+        <v>208</v>
+      </c>
+      <c r="HI49">
+        <v>208</v>
+      </c>
     </row>
-    <row r="50" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -22516,8 +22914,17 @@
       <c r="HD50">
         <v>95</v>
       </c>
+      <c r="HG50">
+        <v>80</v>
+      </c>
+      <c r="HH50">
+        <v>78</v>
+      </c>
+      <c r="HI50">
+        <v>68</v>
+      </c>
     </row>
-    <row r="51" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -23040,8 +23447,17 @@
       <c r="HD51">
         <v>95</v>
       </c>
+      <c r="HG51">
+        <v>80</v>
+      </c>
+      <c r="HH51">
+        <v>78</v>
+      </c>
+      <c r="HI51">
+        <v>68</v>
+      </c>
     </row>
-    <row r="52" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -23561,8 +23977,17 @@
       <c r="HD52">
         <v>1342</v>
       </c>
+      <c r="HG52">
+        <v>1370</v>
+      </c>
+      <c r="HH52">
+        <v>1369</v>
+      </c>
+      <c r="HI52">
+        <v>1367</v>
+      </c>
     </row>
-    <row r="53" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -24076,16 +24501,25 @@
       <c r="HD53">
         <v>1</v>
       </c>
+      <c r="HG53">
+        <v>1</v>
+      </c>
+      <c r="HH53">
+        <v>1</v>
+      </c>
+      <c r="HI53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -24641,8 +25075,17 @@
       <c r="HD56">
         <v>39</v>
       </c>
+      <c r="HG56">
+        <v>39</v>
+      </c>
+      <c r="HH56">
+        <v>39</v>
+      </c>
+      <c r="HI56">
+        <v>39</v>
+      </c>
     </row>
-    <row r="57" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
@@ -25162,8 +25605,17 @@
       <c r="HD57">
         <v>0</v>
       </c>
+      <c r="HG57">
+        <v>0</v>
+      </c>
+      <c r="HH57">
+        <v>0</v>
+      </c>
+      <c r="HI57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
@@ -25683,8 +26135,17 @@
       <c r="HD58">
         <v>38</v>
       </c>
+      <c r="HG58">
+        <v>38</v>
+      </c>
+      <c r="HH58">
+        <v>38</v>
+      </c>
+      <c r="HI58">
+        <v>38</v>
+      </c>
     </row>
-    <row r="59" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
@@ -26240,8 +26701,17 @@
       <c r="HD59">
         <v>0</v>
       </c>
+      <c r="HG59">
+        <v>0</v>
+      </c>
+      <c r="HH59">
+        <v>0</v>
+      </c>
+      <c r="HI59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -26797,8 +27267,17 @@
       <c r="HD60">
         <v>0</v>
       </c>
+      <c r="HG60">
+        <v>0</v>
+      </c>
+      <c r="HH60">
+        <v>0</v>
+      </c>
+      <c r="HI60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -27354,8 +27833,17 @@
       <c r="HD61">
         <v>198</v>
       </c>
+      <c r="HG61">
+        <v>198</v>
+      </c>
+      <c r="HH61">
+        <v>198</v>
+      </c>
+      <c r="HI61">
+        <v>198</v>
+      </c>
     </row>
-    <row r="62" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -27869,8 +28357,17 @@
       <c r="HD62">
         <v>1</v>
       </c>
+      <c r="HG62">
+        <v>1</v>
+      </c>
+      <c r="HH62">
+        <v>1</v>
+      </c>
+      <c r="HI62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
@@ -28426,8 +28923,17 @@
       <c r="HD64">
         <v>16</v>
       </c>
+      <c r="HG64">
+        <v>16</v>
+      </c>
+      <c r="HH64">
+        <v>16</v>
+      </c>
+      <c r="HI64">
+        <v>16</v>
+      </c>
     </row>
-    <row r="65" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>20</v>
       </c>
@@ -28947,8 +29453,17 @@
       <c r="HD65">
         <v>0</v>
       </c>
+      <c r="HG65">
+        <v>0</v>
+      </c>
+      <c r="HH65">
+        <v>0</v>
+      </c>
+      <c r="HI65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>20</v>
       </c>
@@ -29468,8 +29983,17 @@
       <c r="HD66">
         <v>16</v>
       </c>
+      <c r="HG66">
+        <v>16</v>
+      </c>
+      <c r="HH66">
+        <v>16</v>
+      </c>
+      <c r="HI66">
+        <v>16</v>
+      </c>
     </row>
-    <row r="67" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>20</v>
       </c>
@@ -30025,8 +30549,17 @@
       <c r="HD67">
         <v>87</v>
       </c>
+      <c r="HG67">
+        <v>85</v>
+      </c>
+      <c r="HH67">
+        <v>81</v>
+      </c>
+      <c r="HI67">
+        <v>81</v>
+      </c>
     </row>
-    <row r="68" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
@@ -30583,8 +31116,17 @@
       <c r="HD68">
         <v>87</v>
       </c>
+      <c r="HG68">
+        <v>85</v>
+      </c>
+      <c r="HH68">
+        <v>81</v>
+      </c>
+      <c r="HI68">
+        <v>81</v>
+      </c>
     </row>
-    <row r="69" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>20</v>
       </c>
@@ -31140,8 +31682,17 @@
       <c r="HD69">
         <v>0</v>
       </c>
+      <c r="HG69">
+        <v>0</v>
+      </c>
+      <c r="HH69">
+        <v>0</v>
+      </c>
+      <c r="HI69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
@@ -31661,11 +32212,20 @@
       <c r="HD70">
         <v>0</v>
       </c>
+      <c r="HG70">
+        <v>0</v>
+      </c>
+      <c r="HH70">
+        <v>0</v>
+      </c>
+      <c r="HI70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
@@ -32071,8 +32631,17 @@
       <c r="HD72">
         <v>17</v>
       </c>
+      <c r="HG72">
+        <v>17</v>
+      </c>
+      <c r="HH72">
+        <v>17</v>
+      </c>
+      <c r="HI72">
+        <v>17</v>
+      </c>
     </row>
-    <row r="73" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>115</v>
       </c>
@@ -32478,8 +33047,17 @@
       <c r="HD73">
         <v>3</v>
       </c>
+      <c r="HG73">
+        <v>0</v>
+      </c>
+      <c r="HH73">
+        <v>0</v>
+      </c>
+      <c r="HI73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>115</v>
       </c>
@@ -32885,8 +33463,17 @@
       <c r="HD74">
         <v>14</v>
       </c>
+      <c r="HG74">
+        <v>17</v>
+      </c>
+      <c r="HH74">
+        <v>17</v>
+      </c>
+      <c r="HI74">
+        <v>17</v>
+      </c>
     </row>
-    <row r="75" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>115</v>
       </c>
@@ -33292,8 +33879,17 @@
       <c r="HD75">
         <v>1</v>
       </c>
+      <c r="HG75">
+        <v>1</v>
+      </c>
+      <c r="HH75">
+        <v>1</v>
+      </c>
+      <c r="HI75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>115</v>
       </c>
@@ -33699,8 +34295,17 @@
       <c r="HD76">
         <v>4</v>
       </c>
+      <c r="HG76">
+        <v>1</v>
+      </c>
+      <c r="HH76">
+        <v>1</v>
+      </c>
+      <c r="HI76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>115</v>
       </c>
@@ -34106,13 +34711,22 @@
       <c r="HD77">
         <v>82</v>
       </c>
+      <c r="HG77">
+        <v>85</v>
+      </c>
+      <c r="HH77">
+        <v>85</v>
+      </c>
+      <c r="HI77">
+        <v>85</v>
+      </c>
     </row>
-    <row r="79" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:217" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>22</v>
       </c>
@@ -34680,8 +35294,20 @@
       <c r="HE80">
         <v>348</v>
       </c>
+      <c r="HF80">
+        <v>348</v>
+      </c>
+      <c r="HG80">
+        <v>348</v>
+      </c>
+      <c r="HH80">
+        <v>348</v>
+      </c>
+      <c r="HI80">
+        <v>348</v>
+      </c>
     </row>
-    <row r="81" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>22</v>
       </c>
@@ -35243,8 +35869,26 @@
       <c r="HC81">
         <v>84</v>
       </c>
+      <c r="HD81">
+        <v>84</v>
+      </c>
+      <c r="HE81">
+        <v>78</v>
+      </c>
+      <c r="HF81">
+        <v>78</v>
+      </c>
+      <c r="HG81">
+        <v>76</v>
+      </c>
+      <c r="HH81">
+        <v>79</v>
+      </c>
+      <c r="HI81">
+        <v>70</v>
+      </c>
     </row>
-    <row r="82" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>22</v>
       </c>
@@ -35806,8 +36450,26 @@
       <c r="HC82">
         <v>64</v>
       </c>
+      <c r="HD82">
+        <v>63</v>
+      </c>
+      <c r="HE82">
+        <v>63</v>
+      </c>
+      <c r="HF82">
+        <v>68</v>
+      </c>
+      <c r="HG82">
+        <v>62</v>
+      </c>
+      <c r="HH82">
+        <v>63</v>
+      </c>
+      <c r="HI82">
+        <v>52</v>
+      </c>
     </row>
-    <row r="83" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>22</v>
       </c>
@@ -36333,8 +36995,20 @@
       <c r="HE83">
         <v>21</v>
       </c>
+      <c r="HF83">
+        <v>21</v>
+      </c>
+      <c r="HG83">
+        <v>21</v>
+      </c>
+      <c r="HH83">
+        <v>21</v>
+      </c>
+      <c r="HI83">
+        <v>21</v>
+      </c>
     </row>
-    <row r="85" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>28</v>
       </c>
@@ -36902,8 +37576,20 @@
       <c r="HE85">
         <v>143</v>
       </c>
+      <c r="HF85">
+        <v>143</v>
+      </c>
+      <c r="HG85">
+        <v>143</v>
+      </c>
+      <c r="HH85">
+        <v>143</v>
+      </c>
+      <c r="HI85">
+        <v>143</v>
+      </c>
     </row>
-    <row r="86" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>28</v>
       </c>
@@ -37471,8 +38157,20 @@
       <c r="HE86">
         <v>1</v>
       </c>
+      <c r="HF86">
+        <v>1</v>
+      </c>
+      <c r="HG86">
+        <v>1</v>
+      </c>
+      <c r="HH86">
+        <v>1</v>
+      </c>
+      <c r="HI86">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>28</v>
       </c>
@@ -38040,8 +38738,20 @@
       <c r="HE87">
         <v>7</v>
       </c>
+      <c r="HF87">
+        <v>7</v>
+      </c>
+      <c r="HG87">
+        <v>7</v>
+      </c>
+      <c r="HH87">
+        <v>7</v>
+      </c>
+      <c r="HI87">
+        <v>7</v>
+      </c>
     </row>
-    <row r="88" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>28</v>
       </c>
@@ -38609,8 +39319,20 @@
       <c r="HE88">
         <v>291</v>
       </c>
+      <c r="HF88">
+        <v>291</v>
+      </c>
+      <c r="HG88">
+        <v>291</v>
+      </c>
+      <c r="HH88">
+        <v>291</v>
+      </c>
+      <c r="HI88">
+        <v>291</v>
+      </c>
     </row>
-    <row r="89" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>28</v>
       </c>
@@ -39052,8 +39774,20 @@
       <c r="HE89">
         <v>1</v>
       </c>
+      <c r="HF89">
+        <v>1</v>
+      </c>
+      <c r="HG89">
+        <v>1</v>
+      </c>
+      <c r="HH89">
+        <v>1</v>
+      </c>
+      <c r="HI89">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>29</v>
       </c>
@@ -39621,8 +40355,20 @@
       <c r="HE91">
         <v>83</v>
       </c>
+      <c r="HF91">
+        <v>83</v>
+      </c>
+      <c r="HG91">
+        <v>83</v>
+      </c>
+      <c r="HH91">
+        <v>83</v>
+      </c>
+      <c r="HI91">
+        <v>83</v>
+      </c>
     </row>
-    <row r="92" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>29</v>
       </c>
@@ -40190,8 +40936,20 @@
       <c r="HE92">
         <v>0</v>
       </c>
+      <c r="HF92">
+        <v>0</v>
+      </c>
+      <c r="HG92">
+        <v>0</v>
+      </c>
+      <c r="HH92">
+        <v>0</v>
+      </c>
+      <c r="HI92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>29</v>
       </c>
@@ -40747,8 +41505,20 @@
       <c r="HE93">
         <v>196</v>
       </c>
+      <c r="HF93">
+        <v>198</v>
+      </c>
+      <c r="HG93">
+        <v>198</v>
+      </c>
+      <c r="HH93">
+        <v>198</v>
+      </c>
+      <c r="HI93">
+        <v>201</v>
+      </c>
     </row>
-    <row r="94" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>29</v>
       </c>
@@ -41316,8 +42086,20 @@
       <c r="HE94">
         <v>56</v>
       </c>
+      <c r="HF94">
+        <v>56</v>
+      </c>
+      <c r="HG94">
+        <v>56</v>
+      </c>
+      <c r="HH94">
+        <v>56</v>
+      </c>
+      <c r="HI94">
+        <v>56</v>
+      </c>
     </row>
-    <row r="95" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>29</v>
       </c>
@@ -41843,11 +42625,23 @@
       <c r="HE95">
         <v>14</v>
       </c>
+      <c r="HF95">
+        <v>14</v>
+      </c>
+      <c r="HG95">
+        <v>14</v>
+      </c>
+      <c r="HH95">
+        <v>14</v>
+      </c>
+      <c r="HI95">
+        <v>14</v>
+      </c>
     </row>
-    <row r="96" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>124</v>
       </c>
@@ -42232,8 +43026,20 @@
       <c r="HE97">
         <v>18</v>
       </c>
+      <c r="HF97">
+        <v>18</v>
+      </c>
+      <c r="HG97">
+        <v>18</v>
+      </c>
+      <c r="HH97">
+        <v>18</v>
+      </c>
+      <c r="HI97">
+        <v>18</v>
+      </c>
     </row>
-    <row r="98" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>124</v>
       </c>
@@ -42618,8 +43424,20 @@
       <c r="HE98">
         <v>10</v>
       </c>
+      <c r="HF98">
+        <v>10</v>
+      </c>
+      <c r="HG98">
+        <v>10</v>
+      </c>
+      <c r="HH98">
+        <v>10</v>
+      </c>
+      <c r="HI98">
+        <v>10</v>
+      </c>
     </row>
-    <row r="99" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>124</v>
       </c>
@@ -43004,8 +43822,20 @@
       <c r="HE99">
         <v>70</v>
       </c>
+      <c r="HF99">
+        <v>70</v>
+      </c>
+      <c r="HG99">
+        <v>70</v>
+      </c>
+      <c r="HH99">
+        <v>70</v>
+      </c>
+      <c r="HI99">
+        <v>70</v>
+      </c>
     </row>
-    <row r="100" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>124</v>
       </c>
@@ -43390,8 +44220,20 @@
       <c r="HE100">
         <v>1</v>
       </c>
+      <c r="HF100">
+        <v>1</v>
+      </c>
+      <c r="HG100">
+        <v>1</v>
+      </c>
+      <c r="HH100">
+        <v>1</v>
+      </c>
+      <c r="HI100">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>79</v>
       </c>
@@ -43878,8 +44720,20 @@
       <c r="HE102">
         <v>254</v>
       </c>
+      <c r="HF102">
+        <v>254</v>
+      </c>
+      <c r="HG102">
+        <v>254</v>
+      </c>
+      <c r="HH102">
+        <v>254</v>
+      </c>
+      <c r="HI102">
+        <v>254</v>
+      </c>
     </row>
-    <row r="103" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>79</v>
       </c>
@@ -44366,8 +45220,20 @@
       <c r="HE103">
         <v>213</v>
       </c>
+      <c r="HF103">
+        <v>213</v>
+      </c>
+      <c r="HG103">
+        <v>213</v>
+      </c>
+      <c r="HH103">
+        <v>213</v>
+      </c>
+      <c r="HI103">
+        <v>213</v>
+      </c>
     </row>
-    <row r="104" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>79</v>
       </c>
@@ -44854,8 +45720,20 @@
       <c r="HE104" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="HF104" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="HG104" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="HH104" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="HI104" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="105" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:217" x14ac:dyDescent="0.3">
       <c r="GW105" t="s">
         <v>165</v>
       </c>
@@ -44869,7 +45747,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
         <v>123</v>
       </c>
@@ -44877,7 +45755,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
         <v>144</v>
       </c>
@@ -45061,8 +45939,20 @@
       <c r="HE107">
         <v>8</v>
       </c>
+      <c r="HF107">
+        <v>8</v>
+      </c>
+      <c r="HG107">
+        <v>8</v>
+      </c>
+      <c r="HH107">
+        <v>8</v>
+      </c>
+      <c r="HI107">
+        <v>8</v>
+      </c>
     </row>
-    <row r="108" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
         <v>144</v>
       </c>
@@ -45246,8 +46136,20 @@
       <c r="HE108">
         <v>0</v>
       </c>
+      <c r="HF108">
+        <v>0</v>
+      </c>
+      <c r="HG108">
+        <v>0</v>
+      </c>
+      <c r="HH108">
+        <v>0</v>
+      </c>
+      <c r="HI108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
         <v>144</v>
       </c>
@@ -45431,8 +46333,20 @@
       <c r="HE109">
         <v>6</v>
       </c>
+      <c r="HF109">
+        <v>6</v>
+      </c>
+      <c r="HG109">
+        <v>6</v>
+      </c>
+      <c r="HH109">
+        <v>6</v>
+      </c>
+      <c r="HI109">
+        <v>6</v>
+      </c>
     </row>
-    <row r="110" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A110" s="44" t="s">
         <v>144</v>
       </c>
@@ -45616,8 +46530,20 @@
       <c r="HE110">
         <v>2</v>
       </c>
+      <c r="HF110">
+        <v>2</v>
+      </c>
+      <c r="HG110">
+        <v>2</v>
+      </c>
+      <c r="HH110">
+        <v>2</v>
+      </c>
+      <c r="HI110">
+        <v>2</v>
+      </c>
     </row>
-    <row r="111" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A111" s="44" t="s">
         <v>144</v>
       </c>
@@ -45801,8 +46727,20 @@
       <c r="HE111">
         <v>0</v>
       </c>
+      <c r="HF111">
+        <v>0</v>
+      </c>
+      <c r="HG111">
+        <v>0</v>
+      </c>
+      <c r="HH111">
+        <v>0</v>
+      </c>
+      <c r="HI111">
+        <v>0</v>
+      </c>
     </row>
-    <row r="112" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A112" s="44" t="s">
         <v>144</v>
       </c>
@@ -45986,8 +46924,20 @@
       <c r="HE112">
         <v>1</v>
       </c>
+      <c r="HF112">
+        <v>1</v>
+      </c>
+      <c r="HG112">
+        <v>1</v>
+      </c>
+      <c r="HH112">
+        <v>1</v>
+      </c>
+      <c r="HI112">
+        <v>1</v>
+      </c>
     </row>
-    <row r="113" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A113" s="44" t="s">
         <v>144</v>
       </c>
@@ -46171,11 +47121,23 @@
       <c r="HE113">
         <v>2</v>
       </c>
+      <c r="HF113">
+        <v>2</v>
+      </c>
+      <c r="HG113">
+        <v>2</v>
+      </c>
+      <c r="HH113">
+        <v>2</v>
+      </c>
+      <c r="HI113">
+        <v>2</v>
+      </c>
     </row>
-    <row r="114" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:217" x14ac:dyDescent="0.3">
       <c r="A114" s="44"/>
     </row>
-    <row r="121" spans="1:213" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:217" x14ac:dyDescent="0.3">
       <c r="AZ121">
         <v>9</v>
       </c>
@@ -46187,22 +47149,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:GF11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:GJ11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GG12" sqref="GG12"/>
+      <pane xSplit="1" topLeftCell="GI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GK2" sqref="GK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="15" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:188" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:192" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -46767,8 +47729,20 @@
       <c r="GF2" s="9">
         <v>44107</v>
       </c>
+      <c r="GG2" s="9">
+        <v>44108</v>
+      </c>
+      <c r="GH2" s="9">
+        <v>44109</v>
+      </c>
+      <c r="GI2" s="9">
+        <v>44110</v>
+      </c>
+      <c r="GJ2" s="9">
+        <v>44111</v>
+      </c>
     </row>
-    <row r="3" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -47333,8 +48307,20 @@
       <c r="GF3">
         <v>2001</v>
       </c>
+      <c r="GG3">
+        <v>2008</v>
+      </c>
+      <c r="GH3">
+        <v>2028</v>
+      </c>
+      <c r="GI3">
+        <v>2036</v>
+      </c>
+      <c r="GJ3">
+        <v>2036</v>
+      </c>
     </row>
-    <row r="4" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -47899,8 +48885,20 @@
       <c r="GF4">
         <v>1033</v>
       </c>
+      <c r="GG4">
+        <v>1032</v>
+      </c>
+      <c r="GH4">
+        <v>1032</v>
+      </c>
+      <c r="GI4">
+        <v>1032</v>
+      </c>
+      <c r="GJ4">
+        <v>1042</v>
+      </c>
     </row>
-    <row r="5" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -48465,8 +49463,20 @@
       <c r="GF5">
         <v>770</v>
       </c>
+      <c r="GG5">
+        <v>770</v>
+      </c>
+      <c r="GH5">
+        <v>774</v>
+      </c>
+      <c r="GI5">
+        <v>774</v>
+      </c>
+      <c r="GJ5">
+        <v>780</v>
+      </c>
     </row>
-    <row r="6" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -49031,8 +50041,20 @@
       <c r="GF6">
         <v>2927</v>
       </c>
+      <c r="GG6">
+        <v>2927</v>
+      </c>
+      <c r="GH6">
+        <v>2943</v>
+      </c>
+      <c r="GI6">
+        <v>2952</v>
+      </c>
+      <c r="GJ6">
+        <v>2957</v>
+      </c>
     </row>
-    <row r="7" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -49597,8 +50619,20 @@
       <c r="GF7">
         <v>2459</v>
       </c>
+      <c r="GG7">
+        <v>2471</v>
+      </c>
+      <c r="GH7">
+        <v>2491</v>
+      </c>
+      <c r="GI7">
+        <v>2503</v>
+      </c>
+      <c r="GJ7">
+        <v>2523</v>
+      </c>
     </row>
-    <row r="8" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -50163,8 +51197,20 @@
       <c r="GF8">
         <v>1542</v>
       </c>
+      <c r="GG8">
+        <v>1545</v>
+      </c>
+      <c r="GH8">
+        <v>1561</v>
+      </c>
+      <c r="GI8">
+        <v>1566</v>
+      </c>
+      <c r="GJ8">
+        <v>1577</v>
+      </c>
     </row>
-    <row r="9" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -50729,8 +51775,20 @@
       <c r="GF9">
         <v>2243</v>
       </c>
+      <c r="GG9">
+        <v>2248</v>
+      </c>
+      <c r="GH9">
+        <v>2260</v>
+      </c>
+      <c r="GI9">
+        <v>2267</v>
+      </c>
+      <c r="GJ9">
+        <v>2272</v>
+      </c>
     </row>
-    <row r="10" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -51295,8 +52353,20 @@
       <c r="GF10">
         <v>2257</v>
       </c>
+      <c r="GG10">
+        <v>2258</v>
+      </c>
+      <c r="GH10">
+        <v>2274</v>
+      </c>
+      <c r="GI10">
+        <v>2276</v>
+      </c>
+      <c r="GJ10">
+        <v>2284</v>
+      </c>
     </row>
-    <row r="11" spans="1:188" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:192" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -51860,6 +52930,18 @@
       </c>
       <c r="GF11">
         <v>287</v>
+      </c>
+      <c r="GG11">
+        <v>288</v>
+      </c>
+      <c r="GH11">
+        <v>289</v>
+      </c>
+      <c r="GI11">
+        <v>291</v>
+      </c>
+      <c r="GJ11">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -51869,22 +52951,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:GA18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:GF18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GB12" sqref="GB12"/>
+      <pane xSplit="1" topLeftCell="FZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GF2" sqref="GF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="10" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="10" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:183" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:188" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="12">
         <v>43926</v>
@@ -52432,8 +53514,23 @@
       <c r="GA2" s="9">
         <v>44107</v>
       </c>
+      <c r="GB2" s="9">
+        <v>44108</v>
+      </c>
+      <c r="GC2" s="9">
+        <v>44109</v>
+      </c>
+      <c r="GD2" s="9">
+        <v>44110</v>
+      </c>
+      <c r="GE2" s="9">
+        <v>44111</v>
+      </c>
+      <c r="GF2" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:183" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:188" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>36</v>
       </c>
@@ -52442,7 +53539,7 @@
       <c r="D3" s="9"/>
       <c r="CP3" s="4"/>
     </row>
-    <row r="4" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -52992,8 +54089,20 @@
       <c r="GA4" s="34">
         <v>15519</v>
       </c>
+      <c r="GB4" s="34">
+        <v>15547</v>
+      </c>
+      <c r="GC4" s="34">
+        <v>15652</v>
+      </c>
+      <c r="GD4" s="34">
+        <v>15697</v>
+      </c>
+      <c r="GE4" s="34">
+        <v>15765</v>
+      </c>
     </row>
-    <row r="5" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -53543,8 +54652,20 @@
       <c r="GA5">
         <v>72</v>
       </c>
+      <c r="GB5">
+        <v>78</v>
+      </c>
+      <c r="GC5">
+        <v>133</v>
+      </c>
+      <c r="GD5">
+        <v>81</v>
+      </c>
+      <c r="GE5">
+        <v>104</v>
+      </c>
     </row>
-    <row r="6" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>37</v>
       </c>
@@ -54094,8 +55215,20 @@
       <c r="GA6" s="34">
         <v>3420</v>
       </c>
+      <c r="GB6" s="34">
+        <v>3434</v>
+      </c>
+      <c r="GC6" s="34">
+        <v>3449</v>
+      </c>
+      <c r="GD6" s="34">
+        <v>3464</v>
+      </c>
+      <c r="GE6" s="34">
+        <v>3493</v>
+      </c>
     </row>
-    <row r="7" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -54645,8 +55778,20 @@
       <c r="GA7" s="34">
         <v>7823</v>
       </c>
+      <c r="GB7" s="34">
+        <v>7829</v>
+      </c>
+      <c r="GC7" s="34">
+        <v>7855</v>
+      </c>
+      <c r="GD7" s="34">
+        <v>7893</v>
+      </c>
+      <c r="GE7" s="34">
+        <v>7918</v>
+      </c>
     </row>
-    <row r="8" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
@@ -55196,8 +56341,20 @@
       <c r="GA8">
         <v>256</v>
       </c>
+      <c r="GB8" s="34">
+        <v>257</v>
+      </c>
+      <c r="GC8" s="34">
+        <v>257</v>
+      </c>
+      <c r="GD8" s="34">
+        <v>257</v>
+      </c>
+      <c r="GE8" s="34">
+        <v>258</v>
+      </c>
     </row>
-    <row r="9" spans="1:183" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:188" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>40</v>
       </c>
@@ -55747,8 +56904,20 @@
       <c r="GA9">
         <v>38</v>
       </c>
+      <c r="GB9" s="34">
+        <v>38</v>
+      </c>
+      <c r="GC9" s="34">
+        <v>38</v>
+      </c>
+      <c r="GD9" s="34">
+        <v>38</v>
+      </c>
+      <c r="GE9" s="34">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:183" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:188" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -56294,8 +57463,20 @@
       <c r="GA10">
         <v>43</v>
       </c>
+      <c r="GB10" s="34">
+        <v>43</v>
+      </c>
+      <c r="GC10" s="34">
+        <v>43</v>
+      </c>
+      <c r="GD10" s="34">
+        <v>43</v>
+      </c>
+      <c r="GE10" s="34">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
@@ -56845,8 +58026,20 @@
       <c r="GA11" s="34">
         <v>3866</v>
       </c>
+      <c r="GB11" s="34">
+        <v>3867</v>
+      </c>
+      <c r="GC11" s="34">
+        <v>3876</v>
+      </c>
+      <c r="GD11" s="34">
+        <v>3920</v>
+      </c>
+      <c r="GE11" s="34">
+        <v>3910</v>
+      </c>
     </row>
-    <row r="12" spans="1:183" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
@@ -57396,8 +58589,20 @@
       <c r="GA12">
         <v>1</v>
       </c>
+      <c r="GB12" s="34">
+        <v>1</v>
+      </c>
+      <c r="GC12" s="34">
+        <v>1</v>
+      </c>
+      <c r="GD12" s="34">
+        <v>1</v>
+      </c>
+      <c r="GE12" s="34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>43</v>
       </c>
@@ -57409,7 +58614,7 @@
       <c r="G13" s="16"/>
       <c r="DI13" s="34"/>
     </row>
-    <row r="14" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>34</v>
       </c>
@@ -57959,8 +59164,20 @@
       <c r="GA14" s="34">
         <v>1290</v>
       </c>
+      <c r="GB14" s="34">
+        <v>1294</v>
+      </c>
+      <c r="GC14" s="34">
+        <v>1354</v>
+      </c>
+      <c r="GD14" s="34">
+        <v>1325</v>
+      </c>
+      <c r="GE14" s="34">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="15" spans="1:183" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:188" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
@@ -58510,8 +59727,20 @@
       <c r="GA15" s="34">
         <v>3910</v>
       </c>
+      <c r="GB15" s="34">
+        <v>3914</v>
+      </c>
+      <c r="GC15" s="34">
+        <v>3925</v>
+      </c>
+      <c r="GD15" s="34">
+        <v>3940</v>
+      </c>
+      <c r="GE15" s="34">
+        <v>3956</v>
+      </c>
     </row>
-    <row r="16" spans="1:183" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:188" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -59061,8 +60290,20 @@
       <c r="GA16" s="34">
         <v>10303</v>
       </c>
+      <c r="GB16" s="34">
+        <v>10323</v>
+      </c>
+      <c r="GC16" s="34">
+        <v>10357</v>
+      </c>
+      <c r="GD16" s="34">
+        <v>10416</v>
+      </c>
+      <c r="GE16" s="34">
+        <v>10462</v>
+      </c>
     </row>
-    <row r="17" spans="1:183" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:187" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
@@ -59612,8 +60853,20 @@
       <c r="GA17">
         <v>16</v>
       </c>
+      <c r="GB17" s="34">
+        <v>16</v>
+      </c>
+      <c r="GC17" s="34">
+        <v>16</v>
+      </c>
+      <c r="GD17" s="34">
+        <v>16</v>
+      </c>
+      <c r="GE17" s="34">
+        <v>16</v>
+      </c>
     </row>
-    <row r="18" spans="1:183" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:187" x14ac:dyDescent="0.3">
       <c r="FE18" s="34"/>
       <c r="FR18" s="34"/>
       <c r="FT18" s="34"/>
@@ -59627,21 +60880,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:GF9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GB7" sqref="GB7"/>
+      <pane xSplit="1" topLeftCell="GC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GF1" sqref="GF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:183" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:188" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43926</v>
       </c>
@@ -60188,14 +61441,29 @@
       <c r="GA1" s="9">
         <v>44107</v>
       </c>
+      <c r="GB1" s="9">
+        <v>44108</v>
+      </c>
+      <c r="GC1" s="9">
+        <v>44109</v>
+      </c>
+      <c r="GD1" s="9">
+        <v>44110</v>
+      </c>
+      <c r="GE1" s="9">
+        <v>44111</v>
+      </c>
+      <c r="GF1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -60745,8 +62013,20 @@
       <c r="GA3">
         <v>631</v>
       </c>
+      <c r="GB3">
+        <v>631</v>
+      </c>
+      <c r="GC3">
+        <v>631</v>
+      </c>
+      <c r="GD3">
+        <v>632</v>
+      </c>
+      <c r="GE3">
+        <v>634</v>
+      </c>
     </row>
-    <row r="4" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
@@ -61296,8 +62576,20 @@
       <c r="GA4">
         <v>8</v>
       </c>
+      <c r="GB4">
+        <v>8</v>
+      </c>
+      <c r="GC4">
+        <v>8</v>
+      </c>
+      <c r="GD4">
+        <v>8</v>
+      </c>
+      <c r="GE4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:183" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:188" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>38</v>
       </c>
@@ -61847,8 +63139,20 @@
       <c r="GA5">
         <v>469</v>
       </c>
+      <c r="GB5">
+        <v>469</v>
+      </c>
+      <c r="GC5">
+        <v>469</v>
+      </c>
+      <c r="GD5">
+        <v>470</v>
+      </c>
+      <c r="GE5">
+        <v>472</v>
+      </c>
     </row>
-    <row r="6" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -62398,8 +63702,20 @@
       <c r="GA6">
         <v>81</v>
       </c>
+      <c r="GB6">
+        <v>81</v>
+      </c>
+      <c r="GC6">
+        <v>81</v>
+      </c>
+      <c r="GD6">
+        <v>81</v>
+      </c>
+      <c r="GE6">
+        <v>81</v>
+      </c>
     </row>
-    <row r="7" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>47</v>
       </c>
@@ -62949,8 +64265,20 @@
       <c r="GA7">
         <v>67</v>
       </c>
+      <c r="GB7">
+        <v>67</v>
+      </c>
+      <c r="GC7">
+        <v>67</v>
+      </c>
+      <c r="GD7">
+        <v>67</v>
+      </c>
+      <c r="GE7">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
@@ -63500,8 +64828,20 @@
       <c r="GA8">
         <v>6</v>
       </c>
+      <c r="GB8">
+        <v>6</v>
+      </c>
+      <c r="GC8">
+        <v>6</v>
+      </c>
+      <c r="GD8">
+        <v>6</v>
+      </c>
+      <c r="GE8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:183" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:188" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>48</v>
       </c>
@@ -63546,20 +64886,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:FX5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FT4" sqref="FT4"/>
+      <pane xSplit="1" topLeftCell="FU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FX1" sqref="FX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:175" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:180" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43934</v>
       </c>
@@ -64082,13 +65422,28 @@
       <c r="FS1" s="9">
         <v>44107</v>
       </c>
+      <c r="FT1" s="9">
+        <v>44108</v>
+      </c>
+      <c r="FU1" s="9">
+        <v>44109</v>
+      </c>
+      <c r="FV1" s="9">
+        <v>44110</v>
+      </c>
+      <c r="FW1" s="9">
+        <v>44111</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
@@ -64614,8 +65969,20 @@
       <c r="FS3">
         <v>631</v>
       </c>
+      <c r="FT3">
+        <v>631</v>
+      </c>
+      <c r="FU3">
+        <v>631</v>
+      </c>
+      <c r="FV3">
+        <v>632</v>
+      </c>
+      <c r="FW3">
+        <v>634</v>
+      </c>
     </row>
-    <row r="4" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>140</v>
       </c>
@@ -65141,8 +66508,20 @@
       <c r="FS4">
         <v>271</v>
       </c>
+      <c r="FT4">
+        <v>271</v>
+      </c>
+      <c r="FU4">
+        <v>271</v>
+      </c>
+      <c r="FV4">
+        <v>271</v>
+      </c>
+      <c r="FW4">
+        <v>272</v>
+      </c>
     </row>
-    <row r="5" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>139</v>
       </c>
@@ -65667,6 +67046,18 @@
       </c>
       <c r="FS5">
         <v>360</v>
+      </c>
+      <c r="FT5">
+        <v>360</v>
+      </c>
+      <c r="FU5">
+        <v>360</v>
+      </c>
+      <c r="FV5">
+        <v>361</v>
+      </c>
+      <c r="FW5">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -65676,20 +67067,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:FX11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FQ17" sqref="FQ17"/>
+      <pane xSplit="1" topLeftCell="FW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FX1" sqref="FX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:175" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:180" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9">
         <v>43934</v>
       </c>
@@ -66212,13 +67603,31 @@
       <c r="FS1" s="9">
         <v>44107</v>
       </c>
+      <c r="FT1" s="9">
+        <v>44108</v>
+      </c>
+      <c r="FU1" s="9">
+        <v>44109</v>
+      </c>
+      <c r="FV1" s="9">
+        <v>44110</v>
+      </c>
+      <c r="FW1" s="9">
+        <v>44111</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>129</v>
       </c>
+      <c r="FW2">
+        <v>634</v>
+      </c>
     </row>
-    <row r="3" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -66744,8 +68153,20 @@
       <c r="FS3">
         <v>631</v>
       </c>
+      <c r="FT3">
+        <v>631</v>
+      </c>
+      <c r="FU3">
+        <v>631</v>
+      </c>
+      <c r="FV3">
+        <v>632</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>130</v>
       </c>
@@ -67271,8 +68692,20 @@
       <c r="FS4">
         <v>0</v>
       </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>131</v>
       </c>
@@ -67798,8 +69231,20 @@
       <c r="FS5">
         <v>5</v>
       </c>
+      <c r="FT5">
+        <v>5</v>
+      </c>
+      <c r="FU5">
+        <v>5</v>
+      </c>
+      <c r="FV5">
+        <v>5</v>
+      </c>
+      <c r="FW5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -68325,8 +69770,20 @@
       <c r="FS6">
         <v>11</v>
       </c>
+      <c r="FT6">
+        <v>11</v>
+      </c>
+      <c r="FU6">
+        <v>11</v>
+      </c>
+      <c r="FV6">
+        <v>11</v>
+      </c>
+      <c r="FW6">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>133</v>
       </c>
@@ -68852,8 +70309,20 @@
       <c r="FS7">
         <v>23</v>
       </c>
+      <c r="FT7">
+        <v>23</v>
+      </c>
+      <c r="FU7">
+        <v>23</v>
+      </c>
+      <c r="FV7">
+        <v>23</v>
+      </c>
+      <c r="FW7">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -69379,8 +70848,20 @@
       <c r="FS8">
         <v>75</v>
       </c>
+      <c r="FT8">
+        <v>75</v>
+      </c>
+      <c r="FU8">
+        <v>75</v>
+      </c>
+      <c r="FV8">
+        <v>75</v>
+      </c>
+      <c r="FW8">
+        <v>143</v>
+      </c>
     </row>
-    <row r="9" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
@@ -69906,8 +71387,20 @@
       <c r="FS9">
         <v>143</v>
       </c>
+      <c r="FT9">
+        <v>143</v>
+      </c>
+      <c r="FU9">
+        <v>143</v>
+      </c>
+      <c r="FV9">
+        <v>143</v>
+      </c>
+      <c r="FW9">
+        <v>159</v>
+      </c>
     </row>
-    <row r="10" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>136</v>
       </c>
@@ -70433,8 +71926,20 @@
       <c r="FS10">
         <v>158</v>
       </c>
+      <c r="FT10">
+        <v>158</v>
+      </c>
+      <c r="FU10">
+        <v>158</v>
+      </c>
+      <c r="FV10">
+        <v>158</v>
+      </c>
+      <c r="FW10">
+        <v>218</v>
+      </c>
     </row>
-    <row r="11" spans="1:175" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:180" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>137</v>
       </c>
@@ -70959,6 +72464,15 @@
       </c>
       <c r="FS11">
         <v>216</v>
+      </c>
+      <c r="FT11">
+        <v>216</v>
+      </c>
+      <c r="FU11">
+        <v>216</v>
+      </c>
+      <c r="FV11">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -70968,22 +72482,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:FM13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A2:FR13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FI16" sqref="FI16"/>
+      <pane xSplit="1" topLeftCell="FO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FR2" sqref="FR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="57" max="57" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="57" max="57" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:169" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:174" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -71491,8 +73005,23 @@
       <c r="FM2" s="9">
         <v>44107</v>
       </c>
+      <c r="FN2" s="9">
+        <v>44108</v>
+      </c>
+      <c r="FO2" s="9">
+        <v>44109</v>
+      </c>
+      <c r="FP2" s="9">
+        <v>44110</v>
+      </c>
+      <c r="FQ2" s="9">
+        <v>44111</v>
+      </c>
+      <c r="FR2" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -72000,8 +73529,20 @@
       <c r="FM3">
         <v>631</v>
       </c>
+      <c r="FN3">
+        <v>631</v>
+      </c>
+      <c r="FO3">
+        <v>631</v>
+      </c>
+      <c r="FP3">
+        <v>632</v>
+      </c>
+      <c r="FQ3">
+        <v>634</v>
+      </c>
     </row>
-    <row r="4" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -72509,8 +74050,20 @@
       <c r="FM4">
         <v>70</v>
       </c>
+      <c r="FN4">
+        <v>70</v>
+      </c>
+      <c r="FO4">
+        <v>70</v>
+      </c>
+      <c r="FP4">
+        <v>70</v>
+      </c>
+      <c r="FQ4">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -73018,8 +74571,20 @@
       <c r="FM5">
         <v>37</v>
       </c>
+      <c r="FN5">
+        <v>37</v>
+      </c>
+      <c r="FO5">
+        <v>37</v>
+      </c>
+      <c r="FP5">
+        <v>37</v>
+      </c>
+      <c r="FQ5">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -73527,8 +75092,20 @@
       <c r="FM6">
         <v>34</v>
       </c>
+      <c r="FN6">
+        <v>34</v>
+      </c>
+      <c r="FO6">
+        <v>34</v>
+      </c>
+      <c r="FP6">
+        <v>34</v>
+      </c>
+      <c r="FQ6">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -74036,8 +75613,20 @@
       <c r="FM7">
         <v>89</v>
       </c>
+      <c r="FN7">
+        <v>89</v>
+      </c>
+      <c r="FO7">
+        <v>89</v>
+      </c>
+      <c r="FP7">
+        <v>89</v>
+      </c>
+      <c r="FQ7">
+        <v>90</v>
+      </c>
     </row>
-    <row r="8" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -74545,8 +76134,20 @@
       <c r="FM8">
         <v>102</v>
       </c>
+      <c r="FN8">
+        <v>102</v>
+      </c>
+      <c r="FO8">
+        <v>102</v>
+      </c>
+      <c r="FP8">
+        <v>103</v>
+      </c>
+      <c r="FQ8">
+        <v>104</v>
+      </c>
     </row>
-    <row r="9" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -75054,8 +76655,20 @@
       <c r="FM9">
         <v>53</v>
       </c>
+      <c r="FN9">
+        <v>53</v>
+      </c>
+      <c r="FO9">
+        <v>53</v>
+      </c>
+      <c r="FP9">
+        <v>53</v>
+      </c>
+      <c r="FQ9">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -75563,8 +77176,20 @@
       <c r="FM10">
         <v>98</v>
       </c>
+      <c r="FN10">
+        <v>98</v>
+      </c>
+      <c r="FO10">
+        <v>98</v>
+      </c>
+      <c r="FP10">
+        <v>98</v>
+      </c>
+      <c r="FQ10">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -76072,8 +77697,20 @@
       <c r="FM11">
         <v>126</v>
       </c>
+      <c r="FN11">
+        <v>126</v>
+      </c>
+      <c r="FO11">
+        <v>126</v>
+      </c>
+      <c r="FP11">
+        <v>126</v>
+      </c>
+      <c r="FQ11">
+        <v>126</v>
+      </c>
     </row>
-    <row r="12" spans="1:169" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:174" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -76581,8 +78218,20 @@
       <c r="FM12">
         <v>21</v>
       </c>
+      <c r="FN12">
+        <v>21</v>
+      </c>
+      <c r="FO12">
+        <v>21</v>
+      </c>
+      <c r="FP12">
+        <v>21</v>
+      </c>
+      <c r="FQ12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" spans="1:169" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:174" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -77088,6 +78737,18 @@
         <v>1</v>
       </c>
       <c r="FM13">
+        <v>1</v>
+      </c>
+      <c r="FN13">
+        <v>1</v>
+      </c>
+      <c r="FO13">
+        <v>1</v>
+      </c>
+      <c r="FP13">
+        <v>1</v>
+      </c>
+      <c r="FQ13">
         <v>1</v>
       </c>
     </row>
@@ -77098,23 +78759,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:EN23"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EK6" sqref="EK6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="42" max="45" width="8.85546875" customWidth="1"/>
-    <col min="129" max="129" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="8.88671875" customWidth="1"/>
+    <col min="129" max="129" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:144" x14ac:dyDescent="0.3">
       <c r="C1" s="53" t="s">
         <v>191</v>
       </c>
@@ -77131,7 +78793,7 @@
       <c r="N1" s="53"/>
       <c r="O1" s="53"/>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:144" x14ac:dyDescent="0.3">
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
@@ -77146,7 +78808,7 @@
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:144" x14ac:dyDescent="0.3">
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
@@ -77161,7 +78823,7 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
     </row>
-    <row r="4" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:144" x14ac:dyDescent="0.3">
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -77176,7 +78838,7 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:139" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:144" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="9">
         <v>43971</v>
       </c>
@@ -77588,8 +79250,23 @@
       <c r="EI5" s="9">
         <v>44107</v>
       </c>
+      <c r="EJ5" s="9">
+        <v>44108</v>
+      </c>
+      <c r="EK5" s="9">
+        <v>44109</v>
+      </c>
+      <c r="EL5" s="9">
+        <v>44110</v>
+      </c>
+      <c r="EM5" s="9">
+        <v>44111</v>
+      </c>
+      <c r="EN5" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="6" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
@@ -78004,8 +79681,20 @@
       <c r="EI6">
         <v>197</v>
       </c>
+      <c r="EJ6">
+        <v>197</v>
+      </c>
+      <c r="EK6">
+        <v>197</v>
+      </c>
+      <c r="EL6">
+        <v>197</v>
+      </c>
+      <c r="EM6">
+        <v>197</v>
+      </c>
     </row>
-    <row r="7" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -78420,8 +80109,20 @@
       <c r="EI7">
         <v>36</v>
       </c>
+      <c r="EJ7">
+        <v>36</v>
+      </c>
+      <c r="EK7">
+        <v>36</v>
+      </c>
+      <c r="EL7">
+        <v>36</v>
+      </c>
+      <c r="EM7">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>36</v>
       </c>
@@ -78429,7 +80130,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>39</v>
       </c>
@@ -78844,8 +80545,20 @@
       <c r="EI9">
         <v>1</v>
       </c>
+      <c r="EJ9">
+        <v>1</v>
+      </c>
+      <c r="EK9">
+        <v>1</v>
+      </c>
+      <c r="EL9">
+        <v>1</v>
+      </c>
+      <c r="EM9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>117</v>
       </c>
@@ -79260,8 +80973,20 @@
       <c r="EI10">
         <v>23</v>
       </c>
+      <c r="EJ10">
+        <v>23</v>
+      </c>
+      <c r="EK10">
+        <v>23</v>
+      </c>
+      <c r="EL10">
+        <v>23</v>
+      </c>
+      <c r="EM10">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>118</v>
       </c>
@@ -79676,8 +81401,20 @@
       <c r="EI11">
         <v>9</v>
       </c>
+      <c r="EJ11">
+        <v>9</v>
+      </c>
+      <c r="EK11">
+        <v>9</v>
+      </c>
+      <c r="EL11">
+        <v>9</v>
+      </c>
+      <c r="EM11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>37</v>
       </c>
@@ -80092,13 +81829,25 @@
       <c r="EI12">
         <v>3</v>
       </c>
+      <c r="EJ12">
+        <v>3</v>
+      </c>
+      <c r="EK12">
+        <v>3</v>
+      </c>
+      <c r="EL12">
+        <v>3</v>
+      </c>
+      <c r="EM12">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>1</v>
       </c>
@@ -80513,8 +82262,20 @@
       <c r="EI14">
         <v>1</v>
       </c>
+      <c r="EJ14">
+        <v>1</v>
+      </c>
+      <c r="EK14">
+        <v>1</v>
+      </c>
+      <c r="EL14">
+        <v>1</v>
+      </c>
+      <c r="EM14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>2</v>
       </c>
@@ -80929,8 +82690,20 @@
       <c r="EI15">
         <v>0</v>
       </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>3</v>
       </c>
@@ -81345,8 +83118,20 @@
       <c r="EI16">
         <v>3</v>
       </c>
+      <c r="EJ16">
+        <v>3</v>
+      </c>
+      <c r="EK16">
+        <v>3</v>
+      </c>
+      <c r="EL16">
+        <v>3</v>
+      </c>
+      <c r="EM16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>4</v>
       </c>
@@ -81761,8 +83546,20 @@
       <c r="EI17">
         <v>12</v>
       </c>
+      <c r="EJ17">
+        <v>12</v>
+      </c>
+      <c r="EK17">
+        <v>12</v>
+      </c>
+      <c r="EL17">
+        <v>12</v>
+      </c>
+      <c r="EM17">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>5</v>
       </c>
@@ -82177,8 +83974,20 @@
       <c r="EI18">
         <v>3</v>
       </c>
+      <c r="EJ18">
+        <v>3</v>
+      </c>
+      <c r="EK18">
+        <v>3</v>
+      </c>
+      <c r="EL18">
+        <v>3</v>
+      </c>
+      <c r="EM18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>6</v>
       </c>
@@ -82593,8 +84402,20 @@
       <c r="EI19">
         <v>2</v>
       </c>
+      <c r="EJ19">
+        <v>2</v>
+      </c>
+      <c r="EK19">
+        <v>2</v>
+      </c>
+      <c r="EL19">
+        <v>2</v>
+      </c>
+      <c r="EM19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>7</v>
       </c>
@@ -83009,8 +84830,20 @@
       <c r="EI20">
         <v>2</v>
       </c>
+      <c r="EJ20">
+        <v>2</v>
+      </c>
+      <c r="EK20">
+        <v>2</v>
+      </c>
+      <c r="EL20">
+        <v>2</v>
+      </c>
+      <c r="EM20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:139" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:143" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>8</v>
       </c>
@@ -83425,8 +85258,20 @@
       <c r="EI21">
         <v>6</v>
       </c>
+      <c r="EJ21">
+        <v>6</v>
+      </c>
+      <c r="EK21">
+        <v>6</v>
+      </c>
+      <c r="EL21">
+        <v>6</v>
+      </c>
+      <c r="EM21">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:139" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>71</v>
       </c>
@@ -83841,8 +85686,20 @@
       <c r="EI22">
         <v>4</v>
       </c>
+      <c r="EJ22">
+        <v>4</v>
+      </c>
+      <c r="EK22">
+        <v>4</v>
+      </c>
+      <c r="EL22">
+        <v>4</v>
+      </c>
+      <c r="EM22">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:139" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:143" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>119</v>
       </c>
@@ -84255,6 +86112,18 @@
         <v>3</v>
       </c>
       <c r="EI23">
+        <v>3</v>
+      </c>
+      <c r="EJ23">
+        <v>3</v>
+      </c>
+      <c r="EK23">
+        <v>3</v>
+      </c>
+      <c r="EL23">
+        <v>3</v>
+      </c>
+      <c r="EM23">
         <v>3</v>
       </c>
     </row>
@@ -84267,21 +86136,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57" style="48" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -84296,7 +86165,7 @@
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>85</v>
       </c>
@@ -84334,7 +86203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -84347,7 +86216,7 @@
       </c>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -84358,7 +86227,7 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -84369,7 +86238,7 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -84380,7 +86249,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
         <v>153</v>
       </c>
@@ -84403,7 +86272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>128</v>
       </c>
@@ -84426,7 +86295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>95</v>
       </c>
@@ -84449,7 +86318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>96</v>
       </c>
@@ -84472,7 +86341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>97</v>
       </c>
@@ -84495,7 +86364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>149</v>
       </c>
@@ -84541,7 +86410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>99</v>
       </c>
@@ -84564,7 +86433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>147</v>
       </c>
@@ -84587,7 +86456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>100</v>
       </c>
@@ -84610,7 +86479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>101</v>
       </c>
@@ -84633,7 +86502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>102</v>
       </c>
@@ -84702,7 +86571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>105</v>
       </c>
@@ -84748,7 +86617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>107</v>
       </c>
@@ -84796,7 +86665,7 @@
       </c>
       <c r="H25" s="40"/>
     </row>
-    <row r="26" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>49</v>
       </c>
@@ -84819,7 +86688,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>108</v>
       </c>
@@ -84841,6 +86710,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -84849,7 +86724,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C154F8D92A1190498EC67EE37256270A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a145d1f7d2fc6bfdea86e9d796031e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8e61eea9-d51d-4f9c-960b-1b037651d93e" xmlns:ns4="248ed0f8-11d3-4141-bb91-6b69a0801941" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87b2ee5a90a671ef9b646f531a040769" ns3:_="" ns4:_="">
     <xsd:import namespace="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
@@ -85052,13 +86927,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD396E8E-4714-4CC9-8EAA-3025B907ED6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -85066,7 +86952,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE449021-9205-42BF-A2AE-CC419CEBA6BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -85083,21 +86969,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DEDEF4E-2681-4E64-A6E5-9E41742A3664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8e61eea9-d51d-4f9c-960b-1b037651d93e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="248ed0f8-11d3-4141-bb91-6b69a0801941"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>